--- a/nr-mv-MS/ig/StructureDefinition-as-practitioner.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:08:34+00:00</t>
+    <t>2025-10-08T14:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1860,7 +1860,7 @@
     <t>Practitioner.active</t>
   </si>
   <si>
-    <t>Cette ressource est-elle active?
+    <t>Cette ressource est-elle active ?
 true  par défaut; false pour indiquer que la ressource a été supprimée</t>
   </si>
   <si>
@@ -4434,7 +4434,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>132</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>102</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>84</v>
@@ -6322,7 +6322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>221</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>84</v>
@@ -11539,7 +11539,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>320</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>84</v>
@@ -15420,7 +15420,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
         <v>367</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>86</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>84</v>
@@ -19305,7 +19305,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
         <v>412</v>
       </c>
@@ -19326,7 +19326,7 @@
         <v>86</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>84</v>
@@ -22281,7 +22281,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
         <v>545</v>
       </c>
@@ -22302,7 +22302,7 @@
         <v>102</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="I140" t="s" s="2">
         <v>84</v>
@@ -23500,7 +23500,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
         <v>564</v>
       </c>
@@ -23521,7 +23521,7 @@
         <v>86</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>84</v>
